--- a/Model/BayesLSTM/Univariate/result/Manufacturing/SGP.xlsx
+++ b/Model/BayesLSTM/Univariate/result/Manufacturing/SGP.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>1988</v>
       </c>
       <c r="B2" t="n">
-        <v>22.68693923950195</v>
+        <v>22.88405799865723</v>
       </c>
       <c r="C2" t="n">
-        <v>21.41774940490723</v>
+        <v>20.43826293945312</v>
       </c>
       <c r="D2" t="n">
-        <v>23.95612907409668</v>
+        <v>25.32985305786133</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>1989</v>
       </c>
       <c r="B3" t="n">
-        <v>23.50536155700684</v>
+        <v>23.61099624633789</v>
       </c>
       <c r="C3" t="n">
-        <v>21.6844310760498</v>
+        <v>20.94233512878418</v>
       </c>
       <c r="D3" t="n">
-        <v>25.32629203796387</v>
+        <v>26.2796573638916</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>1990</v>
       </c>
       <c r="B4" t="n">
-        <v>23.64793968200684</v>
+        <v>23.60480880737305</v>
       </c>
       <c r="C4" t="n">
-        <v>22.37368011474609</v>
+        <v>21.51190948486328</v>
       </c>
       <c r="D4" t="n">
-        <v>24.92219924926758</v>
+        <v>25.69770812988281</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>1991</v>
       </c>
       <c r="B5" t="n">
-        <v>23.89085578918457</v>
+        <v>24.07437515258789</v>
       </c>
       <c r="C5" t="n">
-        <v>22.54822158813477</v>
+        <v>21.70443153381348</v>
       </c>
       <c r="D5" t="n">
-        <v>25.23348999023438</v>
+        <v>26.4443187713623</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         <v>1992</v>
       </c>
       <c r="B6" t="n">
-        <v>24.14215087890625</v>
+        <v>23.98430252075195</v>
       </c>
       <c r="C6" t="n">
-        <v>23.03179168701172</v>
+        <v>20.98997116088867</v>
       </c>
       <c r="D6" t="n">
-        <v>25.25251007080078</v>
+        <v>26.97863388061523</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +533,13 @@
         <v>1993</v>
       </c>
       <c r="B7" t="n">
-        <v>23.9129753112793</v>
+        <v>24.0306510925293</v>
       </c>
       <c r="C7" t="n">
-        <v>22.67291831970215</v>
+        <v>20.7424488067627</v>
       </c>
       <c r="D7" t="n">
-        <v>25.15303230285645</v>
+        <v>27.3188533782959</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         <v>1994</v>
       </c>
       <c r="B8" t="n">
-        <v>24.09103012084961</v>
+        <v>23.62427139282227</v>
       </c>
       <c r="C8" t="n">
-        <v>23.08347320556641</v>
+        <v>20.88690948486328</v>
       </c>
       <c r="D8" t="n">
-        <v>25.09858703613281</v>
+        <v>26.36163330078125</v>
       </c>
     </row>
     <row r="9">
@@ -561,13 +561,13 @@
         <v>1995</v>
       </c>
       <c r="B9" t="n">
-        <v>24.1378116607666</v>
+        <v>24.45647048950195</v>
       </c>
       <c r="C9" t="n">
-        <v>23.03004837036133</v>
+        <v>22.54062652587891</v>
       </c>
       <c r="D9" t="n">
-        <v>25.24557495117188</v>
+        <v>26.372314453125</v>
       </c>
     </row>
     <row r="10">
@@ -575,13 +575,13 @@
         <v>1996</v>
       </c>
       <c r="B10" t="n">
-        <v>23.63077926635742</v>
+        <v>24.90413665771484</v>
       </c>
       <c r="C10" t="n">
-        <v>22.47434616088867</v>
+        <v>22.90202140808105</v>
       </c>
       <c r="D10" t="n">
-        <v>24.78721237182617</v>
+        <v>26.90625190734863</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         <v>1997</v>
       </c>
       <c r="B11" t="n">
-        <v>23.82712554931641</v>
+        <v>24.62576103210449</v>
       </c>
       <c r="C11" t="n">
-        <v>22.25919342041016</v>
+        <v>22.3741626739502</v>
       </c>
       <c r="D11" t="n">
-        <v>25.39505767822266</v>
+        <v>26.87735939025879</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +603,13 @@
         <v>1998</v>
       </c>
       <c r="B12" t="n">
-        <v>23.81375694274902</v>
+        <v>24.83574867248535</v>
       </c>
       <c r="C12" t="n">
-        <v>22.47908401489258</v>
+        <v>22.17914390563965</v>
       </c>
       <c r="D12" t="n">
-        <v>25.14842987060547</v>
+        <v>27.49235343933105</v>
       </c>
     </row>
     <row r="13">
@@ -617,13 +617,13 @@
         <v>1999</v>
       </c>
       <c r="B13" t="n">
-        <v>23.74606132507324</v>
+        <v>24.63848114013672</v>
       </c>
       <c r="C13" t="n">
-        <v>22.07258224487305</v>
+        <v>21.93132781982422</v>
       </c>
       <c r="D13" t="n">
-        <v>25.41954040527344</v>
+        <v>27.34563446044922</v>
       </c>
     </row>
     <row r="14">
@@ -631,13 +631,13 @@
         <v>2000</v>
       </c>
       <c r="B14" t="n">
-        <v>23.83798789978027</v>
+        <v>25.04541778564453</v>
       </c>
       <c r="C14" t="n">
-        <v>22.56350135803223</v>
+        <v>22.57838439941406</v>
       </c>
       <c r="D14" t="n">
-        <v>25.11247444152832</v>
+        <v>27.512451171875</v>
       </c>
     </row>
     <row r="15">
@@ -645,13 +645,13 @@
         <v>2001</v>
       </c>
       <c r="B15" t="n">
-        <v>23.81983375549316</v>
+        <v>24.96665382385254</v>
       </c>
       <c r="C15" t="n">
-        <v>22.36799812316895</v>
+        <v>22.36883544921875</v>
       </c>
       <c r="D15" t="n">
-        <v>25.27166938781738</v>
+        <v>27.56447219848633</v>
       </c>
     </row>
     <row r="16">
@@ -659,13 +659,13 @@
         <v>2002</v>
       </c>
       <c r="B16" t="n">
-        <v>23.84339904785156</v>
+        <v>24.94169044494629</v>
       </c>
       <c r="C16" t="n">
-        <v>22.26704216003418</v>
+        <v>21.89382743835449</v>
       </c>
       <c r="D16" t="n">
-        <v>25.41975593566895</v>
+        <v>27.98955345153809</v>
       </c>
     </row>
     <row r="17">
@@ -673,13 +673,13 @@
         <v>2003</v>
       </c>
       <c r="B17" t="n">
-        <v>24.0504207611084</v>
+        <v>24.68039321899414</v>
       </c>
       <c r="C17" t="n">
-        <v>22.80603790283203</v>
+        <v>21.67385482788086</v>
       </c>
       <c r="D17" t="n">
-        <v>25.29480361938477</v>
+        <v>27.68693161010742</v>
       </c>
     </row>
     <row r="18">
@@ -687,13 +687,13 @@
         <v>2004</v>
       </c>
       <c r="B18" t="n">
-        <v>23.79048156738281</v>
+        <v>24.94331932067871</v>
       </c>
       <c r="C18" t="n">
-        <v>22.50134658813477</v>
+        <v>22.15823173522949</v>
       </c>
       <c r="D18" t="n">
-        <v>25.07961654663086</v>
+        <v>27.72840690612793</v>
       </c>
     </row>
     <row r="19">
@@ -701,13 +701,13 @@
         <v>2005</v>
       </c>
       <c r="B19" t="n">
-        <v>23.68810844421387</v>
+        <v>24.59713363647461</v>
       </c>
       <c r="C19" t="n">
-        <v>22.86505126953125</v>
+        <v>21.79818344116211</v>
       </c>
       <c r="D19" t="n">
-        <v>24.51116561889648</v>
+        <v>27.39608383178711</v>
       </c>
     </row>
     <row r="20">
@@ -715,13 +715,13 @@
         <v>2006</v>
       </c>
       <c r="B20" t="n">
-        <v>24.05967330932617</v>
+        <v>24.45288467407227</v>
       </c>
       <c r="C20" t="n">
-        <v>22.96743202209473</v>
+        <v>21.52397537231445</v>
       </c>
       <c r="D20" t="n">
-        <v>25.15191459655762</v>
+        <v>27.38179397583008</v>
       </c>
     </row>
     <row r="21">
@@ -729,13 +729,13 @@
         <v>2007</v>
       </c>
       <c r="B21" t="n">
-        <v>24.16891098022461</v>
+        <v>24.48714637756348</v>
       </c>
       <c r="C21" t="n">
-        <v>23.1903076171875</v>
+        <v>21.80849266052246</v>
       </c>
       <c r="D21" t="n">
-        <v>25.14751434326172</v>
+        <v>27.16580009460449</v>
       </c>
     </row>
     <row r="22">
@@ -743,13 +743,13 @@
         <v>2008</v>
       </c>
       <c r="B22" t="n">
-        <v>23.76608848571777</v>
+        <v>24.32759666442871</v>
       </c>
       <c r="C22" t="n">
-        <v>22.56058502197266</v>
+        <v>22.2624626159668</v>
       </c>
       <c r="D22" t="n">
-        <v>24.97159194946289</v>
+        <v>26.39273071289062</v>
       </c>
     </row>
     <row r="23">
@@ -757,13 +757,13 @@
         <v>2009</v>
       </c>
       <c r="B23" t="n">
-        <v>23.84811592102051</v>
+        <v>24.5135498046875</v>
       </c>
       <c r="C23" t="n">
-        <v>22.54423332214355</v>
+        <v>21.89285850524902</v>
       </c>
       <c r="D23" t="n">
-        <v>25.15199851989746</v>
+        <v>27.13424110412598</v>
       </c>
     </row>
     <row r="24">
@@ -771,13 +771,13 @@
         <v>2010</v>
       </c>
       <c r="B24" t="n">
-        <v>23.91267395019531</v>
+        <v>24.75081443786621</v>
       </c>
       <c r="C24" t="n">
-        <v>22.86886405944824</v>
+        <v>22.30344772338867</v>
       </c>
       <c r="D24" t="n">
-        <v>24.95648384094238</v>
+        <v>27.19818115234375</v>
       </c>
     </row>
     <row r="25">
@@ -785,13 +785,13 @@
         <v>2011</v>
       </c>
       <c r="B25" t="n">
-        <v>23.74851417541504</v>
+        <v>24.59988784790039</v>
       </c>
       <c r="C25" t="n">
-        <v>22.40514373779297</v>
+        <v>22.04376983642578</v>
       </c>
       <c r="D25" t="n">
-        <v>25.09188461303711</v>
+        <v>27.156005859375</v>
       </c>
     </row>
     <row r="26">
@@ -799,13 +799,13 @@
         <v>2012</v>
       </c>
       <c r="B26" t="n">
-        <v>23.3106803894043</v>
+        <v>25.02176856994629</v>
       </c>
       <c r="C26" t="n">
-        <v>21.88189125061035</v>
+        <v>22.7364673614502</v>
       </c>
       <c r="D26" t="n">
-        <v>24.73946952819824</v>
+        <v>27.30706977844238</v>
       </c>
     </row>
     <row r="27">
@@ -813,13 +813,13 @@
         <v>2013</v>
       </c>
       <c r="B27" t="n">
-        <v>23.40243148803711</v>
+        <v>24.65551376342773</v>
       </c>
       <c r="C27" t="n">
-        <v>21.76523017883301</v>
+        <v>21.73005485534668</v>
       </c>
       <c r="D27" t="n">
-        <v>25.03963279724121</v>
+        <v>27.58097267150879</v>
       </c>
     </row>
     <row r="28">
@@ -827,13 +827,13 @@
         <v>2014</v>
       </c>
       <c r="B28" t="n">
-        <v>23.42717552185059</v>
+        <v>24.78292465209961</v>
       </c>
       <c r="C28" t="n">
-        <v>21.86400604248047</v>
+        <v>21.7187671661377</v>
       </c>
       <c r="D28" t="n">
-        <v>24.9903450012207</v>
+        <v>27.84708213806152</v>
       </c>
     </row>
     <row r="29">
@@ -841,13 +841,13 @@
         <v>2015</v>
       </c>
       <c r="B29" t="n">
-        <v>24.15739059448242</v>
+        <v>24.49856567382812</v>
       </c>
       <c r="C29" t="n">
-        <v>22.84163093566895</v>
+        <v>22.12941741943359</v>
       </c>
       <c r="D29" t="n">
-        <v>25.4731502532959</v>
+        <v>26.86771392822266</v>
       </c>
     </row>
     <row r="30">
@@ -855,83 +855,13 @@
         <v>2016</v>
       </c>
       <c r="B30" t="n">
-        <v>24.10670852661133</v>
+        <v>24.22736549377441</v>
       </c>
       <c r="C30" t="n">
-        <v>22.95386695861816</v>
+        <v>21.77973556518555</v>
       </c>
       <c r="D30" t="n">
-        <v>25.25955009460449</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B31" t="n">
-        <v>23.85910415649414</v>
-      </c>
-      <c r="C31" t="n">
-        <v>22.99631881713867</v>
-      </c>
-      <c r="D31" t="n">
-        <v>24.72188949584961</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B32" t="n">
-        <v>24.03921508789062</v>
-      </c>
-      <c r="C32" t="n">
-        <v>23.12894630432129</v>
-      </c>
-      <c r="D32" t="n">
-        <v>24.94948387145996</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B33" t="n">
-        <v>24.1351318359375</v>
-      </c>
-      <c r="C33" t="n">
-        <v>22.77563095092773</v>
-      </c>
-      <c r="D33" t="n">
-        <v>25.49463272094727</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B34" t="n">
-        <v>23.95243263244629</v>
-      </c>
-      <c r="C34" t="n">
-        <v>22.67010116577148</v>
-      </c>
-      <c r="D34" t="n">
-        <v>25.23476409912109</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B35" t="n">
-        <v>24.12046432495117</v>
-      </c>
-      <c r="C35" t="n">
-        <v>22.9616756439209</v>
-      </c>
-      <c r="D35" t="n">
-        <v>25.27925300598145</v>
+        <v>26.67499542236328</v>
       </c>
     </row>
   </sheetData>
@@ -977,72 +907,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>25.4556058883667</v>
+        <v>23.87277793884277</v>
       </c>
       <c r="C2" t="n">
-        <v>24.61977606264567</v>
+        <v>21.09091567993164</v>
       </c>
       <c r="D2" t="n">
-        <v>26.29143571408773</v>
+        <v>26.65464019775391</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>24.05529365539551</v>
+        <v>23.86933517456055</v>
       </c>
       <c r="C3" t="n">
-        <v>23.01085528502296</v>
+        <v>21.44332695007324</v>
       </c>
       <c r="D3" t="n">
-        <v>25.09973202576806</v>
+        <v>26.29534339904785</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>23.53474864959717</v>
+        <v>24.05004692077637</v>
       </c>
       <c r="C4" t="n">
-        <v>21.73513326243677</v>
+        <v>21.10544967651367</v>
       </c>
       <c r="D4" t="n">
-        <v>25.33436403675757</v>
+        <v>26.99464416503906</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>21.89865493774414</v>
+        <v>24.27600860595703</v>
       </c>
       <c r="C5" t="n">
-        <v>19.96907832082101</v>
+        <v>21.41502571105957</v>
       </c>
       <c r="D5" t="n">
-        <v>23.82823155466727</v>
+        <v>27.13699150085449</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>22.71656532287598</v>
+        <v>24.43881225585938</v>
       </c>
       <c r="C6" t="n">
-        <v>21.55095664751025</v>
+        <v>21.57113647460938</v>
       </c>
       <c r="D6" t="n">
-        <v>23.8821739982417</v>
+        <v>27.30648803710938</v>
       </c>
     </row>
   </sheetData>
@@ -1091,13 +1021,13 @@
         <v>1988</v>
       </c>
       <c r="B2" t="n">
-        <v>21.89718818664551</v>
+        <v>22.1309700012207</v>
       </c>
       <c r="C2" t="n">
-        <v>19.86620330810547</v>
+        <v>21.23074722290039</v>
       </c>
       <c r="D2" t="n">
-        <v>23.92817306518555</v>
+        <v>23.03119277954102</v>
       </c>
     </row>
     <row r="3">
@@ -1105,13 +1035,13 @@
         <v>1989</v>
       </c>
       <c r="B3" t="n">
-        <v>22.05978584289551</v>
+        <v>23.26631736755371</v>
       </c>
       <c r="C3" t="n">
-        <v>21.02505874633789</v>
+        <v>22.16569709777832</v>
       </c>
       <c r="D3" t="n">
-        <v>23.09451293945312</v>
+        <v>24.3669376373291</v>
       </c>
     </row>
     <row r="4">
@@ -1119,13 +1049,13 @@
         <v>1990</v>
       </c>
       <c r="B4" t="n">
-        <v>22.04364585876465</v>
+        <v>22.43794631958008</v>
       </c>
       <c r="C4" t="n">
-        <v>20.95183372497559</v>
+        <v>21.49905586242676</v>
       </c>
       <c r="D4" t="n">
-        <v>23.13545799255371</v>
+        <v>23.3768367767334</v>
       </c>
     </row>
     <row r="5">
@@ -1133,13 +1063,13 @@
         <v>1991</v>
       </c>
       <c r="B5" t="n">
-        <v>22.07338333129883</v>
+        <v>22.64663314819336</v>
       </c>
       <c r="C5" t="n">
-        <v>20.70161437988281</v>
+        <v>21.43953514099121</v>
       </c>
       <c r="D5" t="n">
-        <v>23.44515228271484</v>
+        <v>23.85373115539551</v>
       </c>
     </row>
     <row r="6">
@@ -1147,13 +1077,13 @@
         <v>1992</v>
       </c>
       <c r="B6" t="n">
-        <v>21.86327171325684</v>
+        <v>22.41511344909668</v>
       </c>
       <c r="C6" t="n">
-        <v>20.14244842529297</v>
+        <v>21.64523506164551</v>
       </c>
       <c r="D6" t="n">
-        <v>23.5840950012207</v>
+        <v>23.18499183654785</v>
       </c>
     </row>
     <row r="7">
@@ -1161,13 +1091,13 @@
         <v>1993</v>
       </c>
       <c r="B7" t="n">
-        <v>22.11139106750488</v>
+        <v>22.87833786010742</v>
       </c>
       <c r="C7" t="n">
-        <v>20.48220062255859</v>
+        <v>21.8105640411377</v>
       </c>
       <c r="D7" t="n">
-        <v>23.74058151245117</v>
+        <v>23.94611167907715</v>
       </c>
     </row>
     <row r="8">
@@ -1175,13 +1105,13 @@
         <v>1994</v>
       </c>
       <c r="B8" t="n">
-        <v>21.82334136962891</v>
+        <v>22.79436874389648</v>
       </c>
       <c r="C8" t="n">
-        <v>20.10526847839355</v>
+        <v>21.85257911682129</v>
       </c>
       <c r="D8" t="n">
-        <v>23.54141426086426</v>
+        <v>23.73615837097168</v>
       </c>
     </row>
     <row r="9">
@@ -1189,13 +1119,13 @@
         <v>1995</v>
       </c>
       <c r="B9" t="n">
-        <v>21.79004669189453</v>
+        <v>22.9513053894043</v>
       </c>
       <c r="C9" t="n">
-        <v>19.60696220397949</v>
+        <v>21.50801658630371</v>
       </c>
       <c r="D9" t="n">
-        <v>23.97313117980957</v>
+        <v>24.39459419250488</v>
       </c>
     </row>
     <row r="10">
@@ -1203,13 +1133,13 @@
         <v>1996</v>
       </c>
       <c r="B10" t="n">
-        <v>21.36421012878418</v>
+        <v>22.63202667236328</v>
       </c>
       <c r="C10" t="n">
-        <v>19.76322555541992</v>
+        <v>21.38578605651855</v>
       </c>
       <c r="D10" t="n">
-        <v>22.96519470214844</v>
+        <v>23.87826728820801</v>
       </c>
     </row>
     <row r="11">
@@ -1217,13 +1147,13 @@
         <v>1997</v>
       </c>
       <c r="B11" t="n">
-        <v>21.81522178649902</v>
+        <v>22.80334663391113</v>
       </c>
       <c r="C11" t="n">
-        <v>19.90629386901855</v>
+        <v>21.66527557373047</v>
       </c>
       <c r="D11" t="n">
-        <v>23.72414970397949</v>
+        <v>23.9414176940918</v>
       </c>
     </row>
     <row r="12">
@@ -1231,13 +1161,13 @@
         <v>1998</v>
       </c>
       <c r="B12" t="n">
-        <v>21.89970016479492</v>
+        <v>23.01408004760742</v>
       </c>
       <c r="C12" t="n">
-        <v>19.80564117431641</v>
+        <v>21.72051811218262</v>
       </c>
       <c r="D12" t="n">
-        <v>23.99375915527344</v>
+        <v>24.30764198303223</v>
       </c>
     </row>
     <row r="13">
@@ -1245,13 +1175,13 @@
         <v>1999</v>
       </c>
       <c r="B13" t="n">
-        <v>21.64885139465332</v>
+        <v>22.45709037780762</v>
       </c>
       <c r="C13" t="n">
-        <v>20.52968215942383</v>
+        <v>21.02184104919434</v>
       </c>
       <c r="D13" t="n">
-        <v>22.76802062988281</v>
+        <v>23.8923397064209</v>
       </c>
     </row>
     <row r="14">
@@ -1259,13 +1189,13 @@
         <v>2000</v>
       </c>
       <c r="B14" t="n">
-        <v>21.80502128601074</v>
+        <v>22.8055534362793</v>
       </c>
       <c r="C14" t="n">
-        <v>19.90390968322754</v>
+        <v>21.53430366516113</v>
       </c>
       <c r="D14" t="n">
-        <v>23.70613288879395</v>
+        <v>24.07680320739746</v>
       </c>
     </row>
     <row r="15">
@@ -1273,13 +1203,13 @@
         <v>2001</v>
       </c>
       <c r="B15" t="n">
-        <v>21.52115821838379</v>
+        <v>22.57145118713379</v>
       </c>
       <c r="C15" t="n">
-        <v>19.96910667419434</v>
+        <v>21.49564933776855</v>
       </c>
       <c r="D15" t="n">
-        <v>23.07320976257324</v>
+        <v>23.64725303649902</v>
       </c>
     </row>
     <row r="16">
@@ -1287,13 +1217,13 @@
         <v>2002</v>
       </c>
       <c r="B16" t="n">
-        <v>22.05824279785156</v>
+        <v>22.76532936096191</v>
       </c>
       <c r="C16" t="n">
-        <v>20.44685173034668</v>
+        <v>21.91390419006348</v>
       </c>
       <c r="D16" t="n">
-        <v>23.66963386535645</v>
+        <v>23.61675453186035</v>
       </c>
     </row>
     <row r="17">
@@ -1301,13 +1231,13 @@
         <v>2003</v>
       </c>
       <c r="B17" t="n">
-        <v>21.68599700927734</v>
+        <v>22.44449234008789</v>
       </c>
       <c r="C17" t="n">
-        <v>20.11197280883789</v>
+        <v>21.23773384094238</v>
       </c>
       <c r="D17" t="n">
-        <v>23.2600212097168</v>
+        <v>23.6512508392334</v>
       </c>
     </row>
     <row r="18">
@@ -1315,13 +1245,13 @@
         <v>2004</v>
       </c>
       <c r="B18" t="n">
-        <v>21.77446174621582</v>
+        <v>22.35591316223145</v>
       </c>
       <c r="C18" t="n">
-        <v>20.41556167602539</v>
+        <v>21.17092704772949</v>
       </c>
       <c r="D18" t="n">
-        <v>23.13336181640625</v>
+        <v>23.5408992767334</v>
       </c>
     </row>
     <row r="19">
@@ -1329,13 +1259,13 @@
         <v>2005</v>
       </c>
       <c r="B19" t="n">
-        <v>22.01238441467285</v>
+        <v>22.70482444763184</v>
       </c>
       <c r="C19" t="n">
-        <v>20.47978019714355</v>
+        <v>21.29715538024902</v>
       </c>
       <c r="D19" t="n">
-        <v>23.54498863220215</v>
+        <v>24.11249351501465</v>
       </c>
     </row>
     <row r="20">
@@ -1343,13 +1273,13 @@
         <v>2006</v>
       </c>
       <c r="B20" t="n">
-        <v>21.84538650512695</v>
+        <v>22.68053817749023</v>
       </c>
       <c r="C20" t="n">
-        <v>20.17142105102539</v>
+        <v>21.67562866210938</v>
       </c>
       <c r="D20" t="n">
-        <v>23.51935195922852</v>
+        <v>23.68544769287109</v>
       </c>
     </row>
     <row r="21">
@@ -1357,13 +1287,13 @@
         <v>2007</v>
       </c>
       <c r="B21" t="n">
-        <v>22.04112815856934</v>
+        <v>22.83353614807129</v>
       </c>
       <c r="C21" t="n">
-        <v>20.07701110839844</v>
+        <v>21.95024490356445</v>
       </c>
       <c r="D21" t="n">
-        <v>24.00524520874023</v>
+        <v>23.71682739257812</v>
       </c>
     </row>
     <row r="22">
@@ -1371,13 +1301,13 @@
         <v>2008</v>
       </c>
       <c r="B22" t="n">
-        <v>21.68000221252441</v>
+        <v>22.77285194396973</v>
       </c>
       <c r="C22" t="n">
-        <v>19.81129455566406</v>
+        <v>21.51130867004395</v>
       </c>
       <c r="D22" t="n">
-        <v>23.54870986938477</v>
+        <v>24.03439521789551</v>
       </c>
     </row>
     <row r="23">
@@ -1385,13 +1315,13 @@
         <v>2009</v>
       </c>
       <c r="B23" t="n">
-        <v>22.09648513793945</v>
+        <v>22.80701637268066</v>
       </c>
       <c r="C23" t="n">
-        <v>20.45680618286133</v>
+        <v>21.60821533203125</v>
       </c>
       <c r="D23" t="n">
-        <v>23.73616409301758</v>
+        <v>24.00581741333008</v>
       </c>
     </row>
     <row r="24">
@@ -1399,13 +1329,13 @@
         <v>2010</v>
       </c>
       <c r="B24" t="n">
-        <v>21.36494064331055</v>
+        <v>22.64299201965332</v>
       </c>
       <c r="C24" t="n">
-        <v>18.59101867675781</v>
+        <v>21.18924903869629</v>
       </c>
       <c r="D24" t="n">
-        <v>24.13886260986328</v>
+        <v>24.09673500061035</v>
       </c>
     </row>
     <row r="25">
@@ -1413,13 +1343,13 @@
         <v>2011</v>
       </c>
       <c r="B25" t="n">
-        <v>21.72744750976562</v>
+        <v>23.12298202514648</v>
       </c>
       <c r="C25" t="n">
-        <v>19.56855010986328</v>
+        <v>22.24380302429199</v>
       </c>
       <c r="D25" t="n">
-        <v>23.88634490966797</v>
+        <v>24.00216102600098</v>
       </c>
     </row>
     <row r="26">
@@ -1427,13 +1357,13 @@
         <v>2012</v>
       </c>
       <c r="B26" t="n">
-        <v>21.93221473693848</v>
+        <v>22.57402420043945</v>
       </c>
       <c r="C26" t="n">
-        <v>20.39048194885254</v>
+        <v>21.31280899047852</v>
       </c>
       <c r="D26" t="n">
-        <v>23.47394752502441</v>
+        <v>23.83523941040039</v>
       </c>
     </row>
     <row r="27">
@@ -1441,13 +1371,13 @@
         <v>2013</v>
       </c>
       <c r="B27" t="n">
-        <v>22.13058090209961</v>
+        <v>22.68083572387695</v>
       </c>
       <c r="C27" t="n">
-        <v>20.60886573791504</v>
+        <v>21.43621826171875</v>
       </c>
       <c r="D27" t="n">
-        <v>23.65229606628418</v>
+        <v>23.92545318603516</v>
       </c>
     </row>
     <row r="28">
@@ -1455,13 +1385,13 @@
         <v>2014</v>
       </c>
       <c r="B28" t="n">
-        <v>21.61651229858398</v>
+        <v>22.63722038269043</v>
       </c>
       <c r="C28" t="n">
-        <v>20.51007270812988</v>
+        <v>21.51416778564453</v>
       </c>
       <c r="D28" t="n">
-        <v>22.72295188903809</v>
+        <v>23.76027297973633</v>
       </c>
     </row>
     <row r="29">
@@ -1469,13 +1399,13 @@
         <v>2015</v>
       </c>
       <c r="B29" t="n">
-        <v>22.15259552001953</v>
+        <v>22.7603816986084</v>
       </c>
       <c r="C29" t="n">
-        <v>20.42056083679199</v>
+        <v>21.67568397521973</v>
       </c>
       <c r="D29" t="n">
-        <v>23.88463020324707</v>
+        <v>23.84507942199707</v>
       </c>
     </row>
     <row r="30">
@@ -1483,13 +1413,13 @@
         <v>2016</v>
       </c>
       <c r="B30" t="n">
-        <v>21.94907379150391</v>
+        <v>22.52846908569336</v>
       </c>
       <c r="C30" t="n">
-        <v>19.99049949645996</v>
+        <v>21.12773513793945</v>
       </c>
       <c r="D30" t="n">
-        <v>23.90764808654785</v>
+        <v>23.92920303344727</v>
       </c>
     </row>
     <row r="31">
@@ -1497,13 +1427,13 @@
         <v>2017</v>
       </c>
       <c r="B31" t="n">
-        <v>22.15972518920898</v>
+        <v>22.6291618347168</v>
       </c>
       <c r="C31" t="n">
-        <v>20.23769187927246</v>
+        <v>21.4036693572998</v>
       </c>
       <c r="D31" t="n">
-        <v>24.08175849914551</v>
+        <v>23.85465431213379</v>
       </c>
     </row>
     <row r="32">
@@ -1511,13 +1441,13 @@
         <v>2018</v>
       </c>
       <c r="B32" t="n">
-        <v>21.84225082397461</v>
+        <v>22.97713851928711</v>
       </c>
       <c r="C32" t="n">
-        <v>19.97486305236816</v>
+        <v>21.75989723205566</v>
       </c>
       <c r="D32" t="n">
-        <v>23.70963859558105</v>
+        <v>24.19437980651855</v>
       </c>
     </row>
     <row r="33">
@@ -1525,13 +1455,13 @@
         <v>2019</v>
       </c>
       <c r="B33" t="n">
-        <v>22.32008743286133</v>
+        <v>22.73476791381836</v>
       </c>
       <c r="C33" t="n">
-        <v>20.45773506164551</v>
+        <v>21.79105377197266</v>
       </c>
       <c r="D33" t="n">
-        <v>24.18243980407715</v>
+        <v>23.67848205566406</v>
       </c>
     </row>
     <row r="34">
@@ -1539,13 +1469,13 @@
         <v>2020</v>
       </c>
       <c r="B34" t="n">
-        <v>22.6340446472168</v>
+        <v>22.6500186920166</v>
       </c>
       <c r="C34" t="n">
-        <v>21.1032886505127</v>
+        <v>21.55116271972656</v>
       </c>
       <c r="D34" t="n">
-        <v>24.1648006439209</v>
+        <v>23.74887466430664</v>
       </c>
     </row>
     <row r="35">
@@ -1553,13 +1483,13 @@
         <v>2021</v>
       </c>
       <c r="B35" t="n">
-        <v>21.99705123901367</v>
+        <v>22.59960556030273</v>
       </c>
       <c r="C35" t="n">
-        <v>20.10286712646484</v>
+        <v>21.88216781616211</v>
       </c>
       <c r="D35" t="n">
-        <v>23.8912353515625</v>
+        <v>23.31704330444336</v>
       </c>
     </row>
   </sheetData>
@@ -1608,13 +1538,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>24.51545028686524</v>
+        <v>24.02347049713135</v>
       </c>
       <c r="C2" t="n">
-        <v>23.22084781711649</v>
+        <v>22.28172455775925</v>
       </c>
       <c r="D2" t="n">
-        <v>25.81005275661398</v>
+        <v>25.76521643650345</v>
       </c>
     </row>
     <row r="3">
@@ -1622,13 +1552,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>22.39821586608887</v>
+        <v>24.34806137084961</v>
       </c>
       <c r="C3" t="n">
-        <v>20.68016827225885</v>
+        <v>23.76873259635869</v>
       </c>
       <c r="D3" t="n">
-        <v>24.11626345991888</v>
+        <v>24.92739014534053</v>
       </c>
     </row>
     <row r="4">
@@ -1636,13 +1566,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>21.3856782913208</v>
+        <v>23.98164615631104</v>
       </c>
       <c r="C4" t="n">
-        <v>20.74084127295005</v>
+        <v>22.42691658957668</v>
       </c>
       <c r="D4" t="n">
-        <v>22.03051530969155</v>
+        <v>25.53637572304539</v>
       </c>
     </row>
     <row r="5">
@@ -1650,13 +1580,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>24.21369552612305</v>
+        <v>21.9554313659668</v>
       </c>
       <c r="C5" t="n">
-        <v>22.78860337704898</v>
+        <v>21.15369208861327</v>
       </c>
       <c r="D5" t="n">
-        <v>25.63878767519711</v>
+        <v>22.75717064332032</v>
       </c>
     </row>
     <row r="6">
@@ -1664,13 +1594,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>22.18718376159668</v>
+        <v>22.19531536102295</v>
       </c>
       <c r="C6" t="n">
-        <v>20.93947252313353</v>
+        <v>21.30427327884477</v>
       </c>
       <c r="D6" t="n">
-        <v>23.43489500005983</v>
+        <v>23.08635744320113</v>
       </c>
     </row>
   </sheetData>
